--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ccl4-Ccr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ccl4-Ccr1.xlsx
@@ -522,16 +522,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>459.852285</v>
+        <v>0.026619</v>
       </c>
       <c r="H2">
-        <v>1379.556855</v>
+        <v>0.079857</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>153.7163603333333</v>
+        <v>0.003209666666666667</v>
       </c>
       <c r="N2">
-        <v>461.149081</v>
+        <v>0.009629</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -558,10 +558,10 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>70686.81954116668</v>
+        <v>8.5438117E-05</v>
       </c>
       <c r="R2">
-        <v>636181.3758705002</v>
+        <v>0.000768943053</v>
       </c>
       <c r="S2">
         <v>1</v>
